--- a/data/Ferrite.xlsx
+++ b/data/Ferrite.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>k</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -451,6 +451,11 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>f_eq</t>
         </is>
       </c>
@@ -460,335 +465,4079 @@
         <v>792</v>
       </c>
       <c r="B2" t="n">
-        <v>2.217918219894791e+23</v>
+        <v>428292274.0536875</v>
       </c>
       <c r="C2" t="n">
-        <v>2.679185906073586</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D2" t="n">
+        <v>7.980768142604322e-21</v>
+      </c>
+      <c r="E2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>782</v>
+        <v>791</v>
       </c>
       <c r="B3" t="n">
-        <v>8388759179776518</v>
+        <v>54194163.07039016</v>
       </c>
       <c r="C3" t="n">
-        <v>2.822530100726365</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D3" t="n">
+        <v>9.827295442458082e-19</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>772</v>
+        <v>790</v>
       </c>
       <c r="B4" t="n">
-        <v>10187398842374.35</v>
+        <v>16255149.63819185</v>
       </c>
       <c r="C4" t="n">
-        <v>2.679238090666759</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D4" t="n">
+        <v>1.622132166568826e-17</v>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>762</v>
+        <v>789</v>
       </c>
       <c r="B5" t="n">
-        <v>627155081571.0068</v>
+        <v>6942198.060666201</v>
       </c>
       <c r="C5" t="n">
-        <v>2.679236986019519</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9900406723344359</v>
+        <v>1.176001631356735e-16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>752</v>
+        <v>788</v>
       </c>
       <c r="B6" t="n">
-        <v>94006147109.84021</v>
+        <v>3598315.419999907</v>
       </c>
       <c r="C6" t="n">
-        <v>2.679236812104864</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2347518364007236</v>
+        <v>5.431525886710883e-16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>742</v>
+        <v>787</v>
       </c>
       <c r="B7" t="n">
-        <v>23228751330.54412</v>
+        <v>2108132.095523851</v>
       </c>
       <c r="C7" t="n">
-        <v>2.679238631220058</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02110399792072826</v>
+        <v>1.886142671775702e-15</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>732</v>
+        <v>786</v>
       </c>
       <c r="B8" t="n">
-        <v>7921575616.478842</v>
+        <v>1344032.801217919</v>
       </c>
       <c r="C8" t="n">
-        <v>2.679235645605703</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D8" t="n">
-        <v>0.004663451512222361</v>
+        <v>5.379531020300699e-15</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>722</v>
+        <v>785</v>
       </c>
       <c r="B9" t="n">
-        <v>3387507306.037026</v>
+        <v>911583.7187542104</v>
       </c>
       <c r="C9" t="n">
-        <v>2.679237039173286</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D9" t="n">
-        <v>0.001775146098860758</v>
+        <v>1.328433921787727e-14</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>712</v>
+        <v>784</v>
       </c>
       <c r="B10" t="n">
-        <v>1714561800.641223</v>
+        <v>648203.9464795643</v>
       </c>
       <c r="C10" t="n">
-        <v>2.679236540601627</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0008921002684455503</v>
+        <v>2.938580387916932e-14</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>702</v>
+        <v>783</v>
       </c>
       <c r="B11" t="n">
-        <v>989484867.0227939</v>
+        <v>478434.0178533679</v>
       </c>
       <c r="C11" t="n">
-        <v>2.679236178605438</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0005372073415609302</v>
+        <v>5.95972859711165e-14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>692</v>
+        <v>782</v>
       </c>
       <c r="B12" t="n">
-        <v>634675246.1302438</v>
+        <v>363946.0844864431</v>
       </c>
       <c r="C12" t="n">
-        <v>2.67923671690909</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0003670441094941745</v>
+        <v>1.126685955061915e-13</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>682</v>
+        <v>781</v>
       </c>
       <c r="B13" t="n">
-        <v>444287063.1604054</v>
+        <v>283840.6914530263</v>
       </c>
       <c r="C13" t="n">
-        <v>2.679236938036224</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0002707206561494147</v>
+        <v>2.009926433737578e-13</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>672</v>
+        <v>780</v>
       </c>
       <c r="B14" t="n">
-        <v>334902910.0299436</v>
+        <v>226048.6334690487</v>
       </c>
       <c r="C14" t="n">
-        <v>2.679237112067316</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002115562178498509</v>
+        <v>3.415020844518106e-13</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>662</v>
+        <v>779</v>
       </c>
       <c r="B15" t="n">
-        <v>269102309.0913466</v>
+        <v>183261.6847903244</v>
       </c>
       <c r="C15" t="n">
-        <v>2.679238792866225</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0001724845099906336</v>
+        <v>5.566458177395239e-13</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>652</v>
+        <v>778</v>
       </c>
       <c r="B16" t="n">
-        <v>228689982.8714131</v>
+        <v>150874.6110835713</v>
       </c>
       <c r="C16" t="n">
-        <v>2.679237912962618</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0001452112911446424</v>
+        <v>8.754338128893959e-13</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>642</v>
+        <v>777</v>
       </c>
       <c r="B17" t="n">
-        <v>204290410.9740855</v>
+        <v>125885.1497817387</v>
       </c>
       <c r="C17" t="n">
-        <v>2.679237418913164</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0001256477984605819</v>
+        <v>1.334537694851309e-12</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>632</v>
+        <v>776</v>
       </c>
       <c r="B18" t="n">
-        <v>190895948.1090011</v>
+        <v>106277.8039476875</v>
       </c>
       <c r="C18" t="n">
-        <v>2.679237679015677</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0001105842103893417</v>
+        <v>1.979433799493114e-12</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>622</v>
+        <v>775</v>
       </c>
       <c r="B19" t="n">
-        <v>185859408.2895934</v>
+        <v>90664.46775041122</v>
       </c>
       <c r="C19" t="n">
-        <v>2.679238980952065</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D19" t="n">
-        <v>9.887027285060412e-05</v>
+        <v>2.865574976345051e-12</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>612</v>
+        <v>774</v>
       </c>
       <c r="B20" t="n">
-        <v>187936196.2064722</v>
+        <v>78067.37254402234</v>
       </c>
       <c r="C20" t="n">
-        <v>2.679236727616322</v>
+        <v>2.328378142385132</v>
       </c>
       <c r="D20" t="n">
-        <v>8.95390631834303e-05</v>
+        <v>4.059577226253587e-12</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>602</v>
+        <v>773</v>
       </c>
       <c r="B21" t="n">
-        <v>196870034.4883603</v>
+        <v>67783.90444620539</v>
       </c>
       <c r="C21" t="n">
-        <v>2.679243521342276</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D21" t="n">
-        <v>8.194824207741203e-05</v>
+        <v>5.64040729069591e-12</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>592</v>
+        <v>772</v>
       </c>
       <c r="B22" t="n">
-        <v>213163896.9260168</v>
+        <v>59300.09441205175</v>
       </c>
       <c r="C22" t="n">
-        <v>2.679243024501877</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D22" t="n">
-        <v>7.566707117878657e-05</v>
+        <v>7.700557527256181e-12</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>582</v>
+        <v>771</v>
       </c>
       <c r="B23" t="n">
-        <v>238139830.6851614</v>
+        <v>52233.90032065962</v>
       </c>
       <c r="C23" t="n">
-        <v>2.67922946030953</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D23" t="n">
-        <v>7.039081595716645e-05</v>
+        <v>1.034719478617467e-11</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9899475234331866</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>572</v>
+        <v>770</v>
       </c>
       <c r="B24" t="n">
-        <v>274177730.7970548</v>
+        <v>46297.2055869985</v>
       </c>
       <c r="C24" t="n">
-        <v>2.679242272931111</v>
+        <v>2.328378142385127</v>
       </c>
       <c r="D24" t="n">
-        <v>6.588968022580577e-05</v>
+        <v>1.37032705219234e-11</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9899475234331865</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>769</v>
+      </c>
+      <c r="B25" t="n">
+        <v>41269.85462028223</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.790858000958976e-11</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9809870761944439</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>768</v>
+      </c>
+      <c r="B26" t="n">
+        <v>36981.59476213424</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.312075926840365e-11</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9204972256943369</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>767</v>
+      </c>
+      <c r="B27" t="n">
+        <v>33299.31234390445</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.951620910584588e-11</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.7954332345966237</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>766</v>
+      </c>
+      <c r="B28" t="n">
+        <v>30117.87630309484</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D28" t="n">
+        <v>3.729093656887565e-11</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.6330371983809371</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>765</v>
+      </c>
+      <c r="B29" t="n">
+        <v>27353.47986801625</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4.666130500892344e-11</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.4755359058226788</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>764</v>
+      </c>
+      <c r="B30" t="n">
+        <v>24938.73776230263</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5.786468492093056e-11</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.3443019360532061</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>763</v>
+      </c>
+      <c r="B31" t="n">
+        <v>22819.0340219084</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D31" t="n">
+        <v>7.11599986915969e-11</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.2479505633993407</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>762</v>
+      </c>
+      <c r="B32" t="n">
+        <v>20949.77203917549</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D32" t="n">
+        <v>8.682815337744739e-11</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.1764569297393448</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>761</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19294.2831634123</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.051723566192824e-10</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.1297762729206342</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>760</v>
+      </c>
+      <c r="B34" t="n">
+        <v>17822.22126450359</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.265183117778749e-10</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.09313733218605247</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>759</v>
+      </c>
+      <c r="B35" t="n">
+        <v>16508.31956505606</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.512142893380722e-10</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.06884097840664782</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>758</v>
+      </c>
+      <c r="B36" t="n">
+        <v>15331.4201129131</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.796310725692754e-10</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.05080400167884103</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>757</v>
+      </c>
+      <c r="B37" t="n">
+        <v>14273.71027908379</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2.121617763421546e-10</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.03839026331057127</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>756</v>
+      </c>
+      <c r="B38" t="n">
+        <v>13320.11778020513</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D38" t="n">
+        <v>2.492215388812036e-10</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.02962912024557507</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>755</v>
+      </c>
+      <c r="B39" t="n">
+        <v>12457.82804841221</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D39" t="n">
+        <v>2.912470870746101e-10</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0233033698399272</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>754</v>
+      </c>
+      <c r="B40" t="n">
+        <v>11675.89673242052</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D40" t="n">
+        <v>3.386961767644804e-10</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.01864147702350338</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>753</v>
+      </c>
+      <c r="B41" t="n">
+        <v>10964.93668931909</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D41" t="n">
+        <v>3.920469101975673e-10</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.01343201432163577</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>752</v>
+      </c>
+      <c r="B42" t="n">
+        <v>10316.86369384377</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D42" t="n">
+        <v>4.517969335290334e-10</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.009735120167071787</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>751</v>
+      </c>
+      <c r="B43" t="n">
+        <v>9724.688724201687</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D43" t="n">
+        <v>5.184625179343781e-10</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.008109327842663827</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>750</v>
+      </c>
+      <c r="B44" t="n">
+        <v>9182.347415273982</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5.925775284999152e-10</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.005964096712684275</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>749</v>
+      </c>
+      <c r="B45" t="n">
+        <v>8684.559339657662</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6.746922856261308e-10</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.004389460044351812</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>748</v>
+      </c>
+      <c r="B46" t="n">
+        <v>8226.711355986025</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7.653723241919944e-10</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.00349290575093042</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>747</v>
+      </c>
+      <c r="B47" t="n">
+        <v>7804.760476630808</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8.651970561918091e-10</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.002574467675448888</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>746</v>
+      </c>
+      <c r="B48" t="n">
+        <v>7415.15264413336</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D48" t="n">
+        <v>9.747583429674539e-10</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.001888198062816038</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>745</v>
+      </c>
+      <c r="B49" t="n">
+        <v>7054.754534461446</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.094658983523771e-09</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.001443913158476362</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>744</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6720.796075098368</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.225511125725255e-09</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.001045237511636987</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>743</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6410.821814113909</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.367934607439718e-09</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0007690243981600675</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>742</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6122.649630621438</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.522555234911139e-09</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0005418572992362813</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>741</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5854.335558470545</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.690003005817314e-09</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0003803533929163105</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>740</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5604.143719708663</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.870910284594148e-09</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0002553019362130371</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>739</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5370.520544546893</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D55" t="n">
+        <v>2.065909937698229e-09</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0001669032842021023</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>738</v>
+      </c>
+      <c r="B56" t="n">
+        <v>5152.072599732332</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D56" t="n">
+        <v>2.275633436518443e-09</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0001032073739211103</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>737</v>
+      </c>
+      <c r="B57" t="n">
+        <v>4947.547464676393</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D57" t="n">
+        <v>2.500708935659163e-09</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>736</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4755.817190097073</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D58" t="n">
+        <v>2.741759334284244e-09</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>735</v>
+      </c>
+      <c r="B59" t="n">
+        <v>4575.863951746042</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D59" t="n">
+        <v>2.999400328145359e-09</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>734</v>
+      </c>
+      <c r="B60" t="n">
+        <v>4406.767575495809</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D60" t="n">
+        <v>3.274238459818961e-09</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>733</v>
+      </c>
+      <c r="B61" t="n">
+        <v>4247.694662406836</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D61" t="n">
+        <v>3.566869174552287e-09</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>732</v>
+      </c>
+      <c r="B62" t="n">
+        <v>4097.889085557913</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D62" t="n">
+        <v>3.877874888953808e-09</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>731</v>
+      </c>
+      <c r="B63" t="n">
+        <v>3956.663666137072</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D63" t="n">
+        <v>4.207823079581622e-09</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>730</v>
+      </c>
+      <c r="B64" t="n">
+        <v>3823.392865937026</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D64" t="n">
+        <v>4.557264398282167e-09</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>729</v>
+      </c>
+      <c r="B65" t="n">
+        <v>3697.506358090101</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.328378142385132</v>
+      </c>
+      <c r="D65" t="n">
+        <v>4.926730820883387e-09</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>728</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3578.483358501023</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D66" t="n">
+        <v>5.316733835618173e-09</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>727</v>
+      </c>
+      <c r="B67" t="n">
+        <v>3465.847617717</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D67" t="n">
+        <v>5.727762677358567e-09</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>726</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3359.162987493256</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D68" t="n">
+        <v>6.160282613480791e-09</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>725</v>
+      </c>
+      <c r="B69" t="n">
+        <v>3258.029488546806</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D69" t="n">
+        <v>6.614733286859778e-09</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>724</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3162.079816327277</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D70" t="n">
+        <v>7.091527121192017e-09</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>723</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3070.976230389072</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D71" t="n">
+        <v>7.591047793518936e-09</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>722</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2984.407780385218</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8.113648778486734e-09</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>721</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2902.087828033058</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D73" t="n">
+        <v>8.659651968549583e-09</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>720</v>
+      </c>
+      <c r="B74" t="n">
+        <v>2823.751829804132</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D74" t="n">
+        <v>9.229346373965077e-09</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>719</v>
+      </c>
+      <c r="B75" t="n">
+        <v>2749.155349711118</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D75" t="n">
+        <v>9.822986906095756e-09</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>718</v>
+      </c>
+      <c r="B76" t="n">
+        <v>2678.072275525773</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.044079324717019e-08</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>717</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2610.293215165256</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.108294880931214e-08</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>716</v>
+      </c>
+      <c r="B78" t="n">
+        <v>2545.62405291408</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.174959978529122e-08</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>715</v>
+      </c>
+      <c r="B79" t="n">
+        <v>2483.884647677249</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.244085429310044e-08</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>714</v>
+      </c>
+      <c r="B80" t="n">
+        <v>2424.907657645783</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.315678161612094e-08</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>713</v>
+      </c>
+      <c r="B81" t="n">
+        <v>2368.537477648606</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.389741154029514e-08</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>712</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2314.629277108361</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.466273378938327e-08</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>711</v>
+      </c>
+      <c r="B83" t="n">
+        <v>2263.048127946772</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.545269755906042e-08</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>710</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2213.668213030094</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.626721115028046e-08</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>709</v>
+      </c>
+      <c r="B85" t="n">
+        <v>2166.372106830657</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.710614170201665e-08</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>708</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2121.05012092987</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.796931502319359e-08</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>707</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2077.599707819279</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.885651552331151e-08</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>706</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2035.924917184772</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.976748624099826e-08</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>705</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1995.93589949976</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D89" t="n">
+        <v>2.070192896942606e-08</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>704</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1957.548452316064</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D90" t="n">
+        <v>2.16595044772881e-08</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>703</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1920.683605137866</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D91" t="n">
+        <v>2.263983282375786e-08</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>702</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1885.267239201921</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D92" t="n">
+        <v>2.364249376562968e-08</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>701</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1851.22973887445</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D93" t="n">
+        <v>2.466702725460387e-08</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>700</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1818.505671717575</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D94" t="n">
+        <v>2.571293402246003e-08</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>699</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1787.033494581879</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D95" t="n">
+        <v>2.677967625167394e-08</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>698</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1756.755283351028</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D96" t="n">
+        <v>2.786667832882177e-08</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>697</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1727.616484203749</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D97" t="n">
+        <v>2.897332767797522e-08</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>696</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1699.565684471725</v>
+      </c>
+      <c r="C98" t="n">
+        <v>2.328378142385125</v>
+      </c>
+      <c r="D98" t="n">
+        <v>3.00989756710879e-08</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>695</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1672.554401361392</v>
+      </c>
+      <c r="C99" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D99" t="n">
+        <v>3.124293861224495e-08</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>694</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1646.536886977281</v>
+      </c>
+      <c r="C100" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D100" t="n">
+        <v>3.240449879253637e-08</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>693</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1621.469948235512</v>
+      </c>
+      <c r="C101" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D101" t="n">
+        <v>3.358290561211877e-08</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>692</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1597.312780391296</v>
+      </c>
+      <c r="C102" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D102" t="n">
+        <v>3.477737676602435e-08</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>691</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1574.026813025431</v>
+      </c>
+      <c r="C103" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D103" t="n">
+        <v>3.598709949007144e-08</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>690</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1551.575567443119</v>
+      </c>
+      <c r="C104" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D104" t="n">
+        <v>3.721123186324596e-08</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>689</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1529.92452453586</v>
+      </c>
+      <c r="C105" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D105" t="n">
+        <v>3.844890416276263e-08</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>688</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1509.041002244577</v>
+      </c>
+      <c r="C106" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D106" t="n">
+        <v>3.969922026803765e-08</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>687</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1488.894041840727</v>
+      </c>
+      <c r="C107" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D107" t="n">
+        <v>4.096125910969153e-08</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>686</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1469.454302312909</v>
+      </c>
+      <c r="C108" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4.223407615971409e-08</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>685</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1450.693962210369</v>
+      </c>
+      <c r="C109" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D109" t="n">
+        <v>4.351670495886246e-08</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>684</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1432.586628352125</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D110" t="n">
+        <v>4.480815867738293e-08</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>683</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1415.107250862553</v>
+      </c>
+      <c r="C111" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D111" t="n">
+        <v>4.610743170513677e-08</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>682</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1398.232044041124</v>
+      </c>
+      <c r="C112" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.741350126719087e-08</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>681</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1381.938412616445</v>
+      </c>
+      <c r="C113" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D113" t="n">
+        <v>4.87253290610022e-08</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>680</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1366.204882973281</v>
+      </c>
+      <c r="C114" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D114" t="n">
+        <v>5.004186291133014e-08</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>679</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1351.011038976026</v>
+      </c>
+      <c r="C115" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.136203843901465e-08</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>678</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1336.337462043717</v>
+      </c>
+      <c r="C116" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D116" t="n">
+        <v>5.268478073989557e-08</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>677</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1322.165675160454</v>
+      </c>
+      <c r="C117" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D117" t="n">
+        <v>5.400900607008126e-08</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>676</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1308.478090531074</v>
+      </c>
+      <c r="C118" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D118" t="n">
+        <v>5.533362353397331e-08</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>675</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1295.257960615786</v>
+      </c>
+      <c r="C119" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D119" t="n">
+        <v>5.665753677138732e-08</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>674</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1282.489332299001</v>
+      </c>
+      <c r="C120" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D120" t="n">
+        <v>5.797964564032251e-08</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>673</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1270.157003967278</v>
+      </c>
+      <c r="C121" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.929884789188763e-08</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>672</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1258.246485289288</v>
+      </c>
+      <c r="C122" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D122" t="n">
+        <v>6.061404083410323e-08</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>671</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1246.74395950708</v>
+      </c>
+      <c r="C123" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D123" t="n">
+        <v>6.19241229813015e-08</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>670</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1235.636248062831</v>
+      </c>
+      <c r="C124" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D124" t="n">
+        <v>6.322799568599319e-08</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>669</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1224.910777399083</v>
+      </c>
+      <c r="C125" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.452456475017272e-08</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>668</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1214.555547782763</v>
+      </c>
+      <c r="C126" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D126" t="n">
+        <v>6.581274201314812e-08</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>667</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1204.559104014931</v>
+      </c>
+      <c r="C127" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D127" t="n">
+        <v>6.709144691307728e-08</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>666</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1194.910507898625</v>
+      </c>
+      <c r="C128" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D128" t="n">
+        <v>6.835960801950835e-08</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>665</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1185.599312346691</v>
+      </c>
+      <c r="C129" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D129" t="n">
+        <v>6.961616453441466e-08</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>664</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1176.615537020486</v>
+      </c>
+      <c r="C130" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D130" t="n">
+        <v>7.086006775920966e-08</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>663</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1167.949645398315</v>
+      </c>
+      <c r="C131" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D131" t="n">
+        <v>7.209028252548584e-08</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>662</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1159.592523179904</v>
+      </c>
+      <c r="C132" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D132" t="n">
+        <v>7.330578858726866e-08</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>661</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1151.535457940156</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D133" t="n">
+        <v>7.450558197272301e-08</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>660</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1143.770119951605</v>
+      </c>
+      <c r="C134" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D134" t="n">
+        <v>7.568867629342753e-08</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>659</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1136.288544100849</v>
+      </c>
+      <c r="C135" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D135" t="n">
+        <v>7.685410400936245e-08</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>658</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1129.083112829588</v>
+      </c>
+      <c r="C136" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D136" t="n">
+        <v>7.800091764803476e-08</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>657</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1122.146540035738</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D137" t="n">
+        <v>7.912819097613233e-08</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>656</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1115.471855874724</v>
+      </c>
+      <c r="C138" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D138" t="n">
+        <v>8.023502012239287e-08</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>655</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1109.052392405188</v>
+      </c>
+      <c r="C139" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D139" t="n">
+        <v>8.132052465037854e-08</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>654</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1102.881770027175</v>
+      </c>
+      <c r="C140" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8.238384858003524e-08</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>653</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1096.953884664564</v>
+      </c>
+      <c r="C141" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8.342416135708332e-08</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>652</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1091.26289564666</v>
+      </c>
+      <c r="C142" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.444065876929715e-08</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>651</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1085.803214247034</v>
+      </c>
+      <c r="C143" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D143" t="n">
+        <v>8.543256380902328e-08</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>650</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1080.569492840469</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D144" t="n">
+        <v>8.639912748123781e-08</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>649</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1075.556614641503</v>
+      </c>
+      <c r="C145" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D145" t="n">
+        <v>8.733962955672294e-08</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>648</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1070.759683990502</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D146" t="n">
+        <v>8.825337926994212e-08</v>
+      </c>
+      <c r="E146" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>647</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1066.174017155442</v>
+      </c>
+      <c r="C147" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D147" t="n">
+        <v>8.913971596141712e-08</v>
+      </c>
+      <c r="E147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>646</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1061.795133619652</v>
+      </c>
+      <c r="C148" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D148" t="n">
+        <v>8.999800966440132e-08</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>645</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1057.61874782773</v>
+      </c>
+      <c r="C149" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D149" t="n">
+        <v>9.082766163591127e-08</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>644</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1053.640761363639</v>
+      </c>
+      <c r="C150" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D150" t="n">
+        <v>9.162810483214093e-08</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>643</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1049.85725553666</v>
+      </c>
+      <c r="C151" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D151" t="n">
+        <v>9.23988043284959e-08</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>642</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1046.264484352447</v>
+      </c>
+      <c r="C152" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D152" t="n">
+        <v>9.313925768451468e-08</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>641</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1042.858867847853</v>
+      </c>
+      <c r="C153" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D153" t="n">
+        <v>9.384899525411268e-08</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>640</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1039.636985769591</v>
+      </c>
+      <c r="C154" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D154" t="n">
+        <v>9.452758044162049e-08</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>639</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1036.595571577977</v>
+      </c>
+      <c r="C155" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D155" t="n">
+        <v>9.517460990420643e-08</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>638</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1033.731506758243</v>
+      </c>
+      <c r="C156" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D156" t="n">
+        <v>9.57897137013987e-08</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>637</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1031.041815422974</v>
+      </c>
+      <c r="C157" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D157" t="n">
+        <v>9.637255539239231e-08</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>636</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1028.523659190192</v>
+      </c>
+      <c r="C158" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D158" t="n">
+        <v>9.692283208209642e-08</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>635</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1026.174332322661</v>
+      </c>
+      <c r="C159" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D159" t="n">
+        <v>9.744027441672371e-08</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>634</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1023.991257114781</v>
+      </c>
+      <c r="C160" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D160" t="n">
+        <v>9.792464653002045e-08</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>633</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1021.971979514258</v>
+      </c>
+      <c r="C161" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D161" t="n">
+        <v>9.837574594115208e-08</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>632</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1020.114164966661</v>
+      </c>
+      <c r="C162" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D162" t="n">
+        <v>9.879340340534884e-08</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>631</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1018.415594471463</v>
+      </c>
+      <c r="C163" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D163" t="n">
+        <v>9.917748271858267e-08</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>630</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1016.874160839069</v>
+      </c>
+      <c r="C164" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D164" t="n">
+        <v>9.952788047744615e-08</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>629</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1015.487865138806</v>
+      </c>
+      <c r="C165" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D165" t="n">
+        <v>9.984452579555267e-08</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>628</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1014.254813328512</v>
+      </c>
+      <c r="C166" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.00127379977862e-07</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>627</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1013.173213056925</v>
+      </c>
+      <c r="C167" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.003764361542241e-07</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>626</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1012.24137063057</v>
+      </c>
+      <c r="C168" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.005917188736794e-07</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>625</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1011.457688137302</v>
+      </c>
+      <c r="C169" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.007732836609166e-07</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>624</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1010.820660719196</v>
+      </c>
+      <c r="C170" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.00921216536423e-07</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>623</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1010.328873987863</v>
+      </c>
+      <c r="C171" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.010356335018468e-07</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>622</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1009.981001575612</v>
+      </c>
+      <c r="C172" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.011166799921556e-07</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>621</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1009.775802816403</v>
+      </c>
+      <c r="C173" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.01164530296128e-07</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>620</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1009.712120550769</v>
+      </c>
+      <c r="C174" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.01179386946805e-07</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>619</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1009.788879049235</v>
+      </c>
+      <c r="C175" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.011614800835381e-07</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>618</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1010.005082049174</v>
+      </c>
+      <c r="C176" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.011110667871683e-07</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>617</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1010.359810900192</v>
+      </c>
+      <c r="C177" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.010284303900779e-07</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>616</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1010.852222813533</v>
+      </c>
+      <c r="C178" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.009138797626605e-07</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>615</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1011.481549211208</v>
+      </c>
+      <c r="C179" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.007677485778871e-07</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>614</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1012.247094170797</v>
+      </c>
+      <c r="C180" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.005903945555836e-07</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>613</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1013.148232962147</v>
+      </c>
+      <c r="C181" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.003821986880584e-07</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>612</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1014.18441067232</v>
+      </c>
+      <c r="C182" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.001435644486679e-07</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>611</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1015.355140915506</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D183" t="n">
+        <v>9.987491698498382e-08</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>610</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1016.660004624654</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D184" t="n">
+        <v>9.957670229807701e-08</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>609</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1018.098648921853</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9.924938640955725e-08</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>608</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1019.670786064677</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D186" t="n">
+        <v>9.889345451791222e-08</v>
+      </c>
+      <c r="E186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>607</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1021.376192465823</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D187" t="n">
+        <v>9.850941014563207e-08</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>606</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1023.214707783565</v>
+      </c>
+      <c r="C188" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D188" t="n">
+        <v>9.80977742787152e-08</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>605</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1025.186234080688</v>
+      </c>
+      <c r="C189" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D189" t="n">
+        <v>9.765908449997637e-08</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>604</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1027.290735049751</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D190" t="n">
+        <v>9.719389411761472e-08</v>
+      </c>
+      <c r="E190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>603</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1029.528235302558</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D191" t="n">
+        <v>9.670277129053224e-08</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>602</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1031.898819721993</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D192" t="n">
+        <v>9.618629815172018e-08</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>601</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1034.402632874338</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D193" t="n">
+        <v>9.564506993114592e-08</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>600</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1037.039878480474</v>
+      </c>
+      <c r="C194" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D194" t="n">
+        <v>9.507969407939984e-08</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>599</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1039.810818944323</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D195" t="n">
+        <v>9.449078939348452e-08</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>598</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1042.715774937135</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D196" t="n">
+        <v>9.387898514590536e-08</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>597</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1045.755125036198</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D197" t="n">
+        <v>9.324492021834629e-08</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>596</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1048.929305416749</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D198" t="n">
+        <v>9.258924224110756e-08</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>595</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1052.238809595893</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D199" t="n">
+        <v>9.191260673937883e-08</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>594</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1055.684188227482</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D200" t="n">
+        <v>9.121567628754146e-08</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>593</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1059.266048946912</v>
+      </c>
+      <c r="C201" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D201" t="n">
+        <v>9.049911967244918e-08</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>592</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1062.985056264968</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8.976361106679329e-08</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>591</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1066.841931509864</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D203" t="n">
+        <v>8.900982921344688e-08</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>590</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1070.837452816729</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D204" t="n">
+        <v>8.823845662175858e-08</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>589</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1074.97245516385</v>
+      </c>
+      <c r="C205" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D205" t="n">
+        <v>8.745017877664046e-08</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>588</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1079.247830455065</v>
+      </c>
+      <c r="C206" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D206" t="n">
+        <v>8.664568336131765e-08</v>
+      </c>
+      <c r="E206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>587</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1083.664527647781</v>
+      </c>
+      <c r="C207" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D207" t="n">
+        <v>8.582565949449668e-08</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>586</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1088.223552926095</v>
+      </c>
+      <c r="C208" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D208" t="n">
+        <v>8.49907969827367e-08</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>585</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1092.925969918655</v>
+      </c>
+      <c r="C209" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D209" t="n">
+        <v>8.414178558868354e-08</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>584</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1097.772899960887</v>
+      </c>
+      <c r="C210" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D210" t="n">
+        <v>8.327931431584867e-08</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>583</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1102.765522401321</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D211" t="n">
+        <v>8.240407071054522e-08</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>582</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1107.905074951724</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D212" t="n">
+        <v>8.151674018152313e-08</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>581</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1113.192854081018</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D213" t="n">
+        <v>8.061800533787034e-08</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>580</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1118.630215452635</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D214" t="n">
+        <v>7.970854534561097e-08</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>579</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1124.218574405525</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D215" t="n">
+        <v>7.878903530348747e-08</v>
+      </c>
+      <c r="E215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>578</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1129.959406478567</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D216" t="n">
+        <v>7.786014563826846e-08</v>
+      </c>
+      <c r="E216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>577</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1135.854247978629</v>
+      </c>
+      <c r="C217" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D217" t="n">
+        <v>7.692254151998749e-08</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>576</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1141.904696592222</v>
+      </c>
+      <c r="C218" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D218" t="n">
+        <v>7.597688229739559e-08</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>575</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1148.112412041037</v>
+      </c>
+      <c r="C219" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D219" t="n">
+        <v>7.502382095388125e-08</v>
+      </c>
+      <c r="E219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>574</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1154.479116781468</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D220" t="n">
+        <v>7.40640035841546e-08</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>573</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1161.006596748457</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D221" t="n">
+        <v>7.309806889179567e-08</v>
+      </c>
+      <c r="E221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>572</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1167.696702143894</v>
+      </c>
+      <c r="C222" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D222" t="n">
+        <v>7.212664770791707e-08</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>571</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1174.551348270037</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D223" t="n">
+        <v>7.115036253097861e-08</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>570</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1181.572516408235</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D224" t="n">
+        <v>7.01698270878867e-08</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>569</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1188.762254743502</v>
+      </c>
+      <c r="C225" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D225" t="n">
+        <v>6.918564591640109e-08</v>
+      </c>
+      <c r="E225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>568</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1196.122679335441</v>
+      </c>
+      <c r="C226" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D226" t="n">
+        <v>6.819841396886341e-08</v>
+      </c>
+      <c r="E226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>567</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1203.655975136028</v>
+      </c>
+      <c r="C227" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D227" t="n">
+        <v>6.720871623723023e-08</v>
+      </c>
+      <c r="E227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>566</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1211.364397054924</v>
+      </c>
+      <c r="C228" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D228" t="n">
+        <v>6.621712739935872e-08</v>
+      </c>
+      <c r="E228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>565</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1219.250271072959</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D229" t="n">
+        <v>6.522421148643398e-08</v>
+      </c>
+      <c r="E229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>564</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1227.315995404445</v>
+      </c>
+      <c r="C230" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D230" t="n">
+        <v>6.423052157147384e-08</v>
+      </c>
+      <c r="E230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>563</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1235.564041709165</v>
+      </c>
+      <c r="C231" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D231" t="n">
+        <v>6.323659947871893e-08</v>
+      </c>
+      <c r="E231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
         <v>562</v>
       </c>
-      <c r="B25" t="n">
-        <v>324850693.6425736</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2.679242661082605</v>
-      </c>
-      <c r="D25" t="n">
-        <v>6.20113678865275e-05</v>
+      <c r="B232" t="n">
+        <v>1243.996956354787</v>
+      </c>
+      <c r="C232" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D232" t="n">
+        <v>6.224297551374503e-08</v>
+      </c>
+      <c r="E232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>561</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1252.617361730604</v>
+      </c>
+      <c r="C233" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D233" t="n">
+        <v>6.125016821412948e-08</v>
+      </c>
+      <c r="E233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>560</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1261.427957613491</v>
+      </c>
+      <c r="C234" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D234" t="n">
+        <v>6.02586841204083e-08</v>
+      </c>
+      <c r="E234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>559</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1270.431522587058</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D235" t="n">
+        <v>5.926901756709844e-08</v>
+      </c>
+      <c r="E235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>558</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1279.630915515039</v>
+      </c>
+      <c r="C236" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D236" t="n">
+        <v>5.828165049351208e-08</v>
+      </c>
+      <c r="E236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>557</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1289.02907706995</v>
+      </c>
+      <c r="C237" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D237" t="n">
+        <v>5.729705227405114e-08</v>
+      </c>
+      <c r="E237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>556</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1298.629031318232</v>
+      </c>
+      <c r="C238" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D238" t="n">
+        <v>5.63156795676984e-08</v>
+      </c>
+      <c r="E238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>555</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1308.433887362984</v>
+      </c>
+      <c r="C239" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D239" t="n">
+        <v>5.533797618634045e-08</v>
+      </c>
+      <c r="E239" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>554</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1318.446841045587</v>
+      </c>
+      <c r="C240" t="n">
+        <v>2.328378142385127</v>
+      </c>
+      <c r="D240" t="n">
+        <v>5.436437298159431e-08</v>
+      </c>
+      <c r="E240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>553</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1328.671176707502</v>
+      </c>
+      <c r="C241" t="n">
+        <v>2.32837814238513</v>
+      </c>
+      <c r="D241" t="n">
+        <v>5.339528774973937e-08</v>
+      </c>
+      <c r="E241" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
